--- a/data/Pipeline.xlsx
+++ b/data/Pipeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC\tcc_insta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E82B4A-8A3E-4CB9-87A0-ECDB721D6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EEDF7-44A1-4204-8A5D-1F8CAC34F097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Atvd/Dataset</t>
   </si>
@@ -84,132 +84,6 @@
     <t>Classifying_Dataset</t>
   </si>
   <si>
-    <t>Train (VGG16) (LogisticRegression) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (KNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (NB) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (Random Forest) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (LogisticRegression) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (KNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (NB) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (Random Forest) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (CNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (CNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (LogisticRegression) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (KNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (NB) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (Random Forest) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (CNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (LogisticRegression) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (KNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (NB) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (Random Forest) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (CNN) (2 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (LogisticRegression) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (KNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (NB) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (Random Forest) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG16) (CNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (LogisticRegression) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (KNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (NB) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (Random Forest) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (VGG19) (CNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (LogisticRegression) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (KNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (NB) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (Random Forest) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (ResNet) (CNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (LogisticRegression) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (KNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (NB) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (Random Forest) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Train (InceptionV3) (CNN) (4 Classes)</t>
-  </si>
-  <si>
-    <t>Compare with Lisa (2 Classes)</t>
-  </si>
-  <si>
-    <t>Compare with Lisa (4 Classes)</t>
-  </si>
-  <si>
     <t>Transform to 4 classes</t>
   </si>
   <si>
@@ -220,13 +94,100 @@
   </si>
   <si>
     <t>Clean Images</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG19) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG19) (NB)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG19) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG19) (CNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (RESNET) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (RESNET) (NB)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (RESNET) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (RESNET) (CNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (INCEPTIONV3) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (INCEPTIONV3) (NB)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (INCEPTIONV3) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (INCEPTIONV3) (CNN)</t>
+  </si>
+  <si>
+    <t>COMPARE WITH LISA (2 Classes)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG19) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG19) (NB)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG19) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG19) (CNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (RESNET) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (RESNET) (NB)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (RESNET) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (RESNET) (CNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (INCEPTIONV3) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (INCEPTIONV3) (NB)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (INCEPTIONV3) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (INCEPTIONV3) (CNN)</t>
+  </si>
+  <si>
+    <t>COMPARE WITH LISA (4 Classes)</t>
+  </si>
+  <si>
+    <t>Extract Features (2&amp;4 Classes) (VGG19)</t>
+  </si>
+  <si>
+    <t>Extract Features (2&amp;4 Classes) (RESNET)</t>
+  </si>
+  <si>
+    <t>Extract Features (2&amp;4 Classes) (INCEPTIONV3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +207,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,12 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -363,11 +331,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -397,16 +531,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,16 +879,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,37 +932,37 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -788,61 +980,61 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -858,426 +1050,291 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
+      <c r="B22" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
+      <c r="B24" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
+      <c r="B25" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
+      <c r="B26" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
+      <c r="B28" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
+      <c r="B29" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
+      <c r="B30" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="B33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="B34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
+      <c r="B37" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
+      <c r="B38" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="1" t="s">
-        <v>36</v>
+      <c r="B39" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="B40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
+      <c r="B41" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="1" t="s">
-        <v>59</v>
+      <c r="B42" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
+      <c r="B43" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1" t="s">
+      <c r="B47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="11"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Pipeline.xlsx
+++ b/data/Pipeline.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC\tcc_insta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EEDF7-44A1-4204-8A5D-1F8CAC34F097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF1450-0400-461C-8487-3A53742AE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -96,18 +105,6 @@
     <t>Clean Images</t>
   </si>
   <si>
-    <t>Train (2 Classes) (VGG19) (KNN)</t>
-  </si>
-  <si>
-    <t>Train (2 Classes) (VGG19) (NB)</t>
-  </si>
-  <si>
-    <t>Train (2 Classes) (VGG19) (RANDOMFOREST)</t>
-  </si>
-  <si>
-    <t>Train (2 Classes) (VGG19) (CNN)</t>
-  </si>
-  <si>
     <t>Train (2 Classes) (RESNET) (KNN)</t>
   </si>
   <si>
@@ -135,18 +132,6 @@
     <t>COMPARE WITH LISA (2 Classes)</t>
   </si>
   <si>
-    <t>Train (4 Classes) (VGG19) (KNN)</t>
-  </si>
-  <si>
-    <t>Train (4 Classes) (VGG19) (NB)</t>
-  </si>
-  <si>
-    <t>Train (4 Classes) (VGG19) (RANDOMFOREST)</t>
-  </si>
-  <si>
-    <t>Train (4 Classes) (VGG19) (CNN)</t>
-  </si>
-  <si>
     <t>Train (4 Classes) (RESNET) (KNN)</t>
   </si>
   <si>
@@ -174,13 +159,37 @@
     <t>COMPARE WITH LISA (4 Classes)</t>
   </si>
   <si>
-    <t>Extract Features (2&amp;4 Classes) (VGG19)</t>
-  </si>
-  <si>
     <t>Extract Features (2&amp;4 Classes) (RESNET)</t>
   </si>
   <si>
     <t>Extract Features (2&amp;4 Classes) (INCEPTIONV3)</t>
+  </si>
+  <si>
+    <t>Extract Features (2&amp;4 Classes) (VGG16)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG16) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG16) (NB)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG16) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (2 Classes) (VGG16) (CNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG16) (KNN)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG16) (NB)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG16) (RANDOMFOREST)</t>
+  </si>
+  <si>
+    <t>Train (4 Classes) (VGG16) (CNN)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +253,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -501,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -540,7 +561,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,15 +570,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -575,11 +589,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,10 +605,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,265 +1100,265 @@
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="17" t="s">
-        <v>31</v>
+      <c r="B32" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="17" t="s">
-        <v>32</v>
+      <c r="B33" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="17" t="s">
-        <v>33</v>
+      <c r="B34" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="18"/>
+      <c r="B37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="18"/>
+      <c r="B38" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="18"/>
+      <c r="B39" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
+      <c r="B40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="18"/>
+      <c r="B43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
+      <c r="B44" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="30"/>
+      <c r="B46" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+      <c r="B49" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Pipeline.xlsx
+++ b/data/Pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IC\tcc_insta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF1450-0400-461C-8487-3A53742AE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76770227-93BC-4252-A517-8D61961BE95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +259,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -522,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,9 +565,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -620,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +894,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,30 +1095,30 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="35"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1139,7 +1127,7 @@
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="35"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1148,7 +1136,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="35"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1157,16 +1145,16 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="35"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="41"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1175,7 +1163,7 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="35"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1184,7 +1172,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="35"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1193,16 +1181,16 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="35"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1211,7 +1199,7 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="35"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1220,7 +1208,7 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="35"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1229,136 +1217,136 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="35"/>
+      <c r="E34" s="34"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="34"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="35"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="35"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="35"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="35"/>
+      <c r="E42" s="34"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="35"/>
+      <c r="E43" s="34"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="39"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="36"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="36"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="36"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="40"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
